--- a/assets/files/excel/3422.xlsx
+++ b/assets/files/excel/3422.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="EE34" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="J2r0r4hMFNdFBB9E99yCHP4D/FpcP6g9B1d6LY6Ncf5R2dq8qUM+OQ+/YNUF5MnR2tmL/F0L6vHpFyKUgLJQ4A==" workbookSaltValue="KhfOwpZdIL1G5eDh4qoy3A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -933,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1142,9 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1362,7 +1360,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="29" t="str">
-        <f>IFERROR(IF(SUM('Подоходный налог'!D7:D16)=SUM('Подоходный налог (решение)'!D7:D16),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Подоходный налог'!D7:D16)-SUM('Подоходный налог (решение)'!D7:D16))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -1377,7 +1375,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="str">
-        <f>IFERROR(IF('Подоходный налог'!B19='Подоходный налог (решение)'!B19,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Подоходный налог'!B19-'Подоходный налог (решение)'!B19)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
